--- a/tests/data/test_data_05.xlsx
+++ b/tests/data/test_data_05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA2CC5E-34DD-2D42-9B0C-1764345D3290}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A0ACE6-9FAB-8E4B-AFFE-9C1CA9E6FFB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>regex</t>
   </si>
   <si>
-    <t>nlp/test_data_05</t>
+    <t>[tmp]/nlp/test_data_05</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2881"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -23604,7 +23604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tests/data/test_data_05.xlsx
+++ b/tests/data/test_data_05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D2410-FFE9-B04E-B4CA-095341E3958C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B2496B-72FA-604C-93E3-140A0721E364}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>text</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>train</t>
+  </si>
+  <si>
+    <t>Add Entity annotations</t>
+  </si>
+  <si>
+    <t>Train to recognise the annotations</t>
+  </si>
+  <si>
+    <t>Recalculate the annotations</t>
+  </si>
+  <si>
+    <t>Save the result into Excel</t>
+  </si>
+  <si>
+    <t>Collect sentences from sources</t>
   </si>
 </sst>
 </file>
@@ -459,7 +474,7 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -489,6 +504,9 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -500,6 +518,9 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -511,6 +532,9 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -522,6 +546,9 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -535,6 +562,9 @@
       </c>
       <c r="D6" t="s">
         <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -547,7 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF5D81-E310-3A45-9ABE-A86114765ABD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tests/data/test_data_05.xlsx
+++ b/tests/data/test_data_05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/excelcy/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wizz/Documents/Projects/kororo/excelcy/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B2496B-72FA-604C-93E3-140A0721E364}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0932C9-BF5B-F446-A2B2-4F837CCD79F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phase" sheetId="5" r:id="rId1"/>
@@ -129,8 +129,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -158,9 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -467,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BBB3E5-6C1D-7646-B12D-3BE01DC03441}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -478,19 +490,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -577,9 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BF5D81-E310-3A45-9ABE-A86114765ABD}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -589,19 +599,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -643,19 +653,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -679,19 +689,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -705,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -714,10 +724,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -750,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
